--- a/docs/PocketReroll.xlsx
+++ b/docs/PocketReroll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A284FAD-B109-48E8-B3C1-142449CD3009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D4516-A22A-4CE8-B840-A1915AF859A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10392" yWindow="3312" windowWidth="12648" windowHeight="8880" activeTab="2" xr2:uid="{9A02808A-D557-4DB4-ABB7-7CB3071347B9}"/>
+    <workbookView xWindow="9432" yWindow="1524" windowWidth="12648" windowHeight="8880" activeTab="2" xr2:uid="{9A02808A-D557-4DB4-ABB7-7CB3071347B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Reroll Packs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="78">
   <si>
     <t>mandatory Mewtwo pack</t>
   </si>
@@ -251,6 +251,27 @@
   </si>
   <si>
     <t>Blastoise ex</t>
+  </si>
+  <si>
+    <t>Gengar ex</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>Cubone</t>
+  </si>
+  <si>
+    <t>Marowak ex</t>
+  </si>
+  <si>
+    <t>Charizard ex</t>
+  </si>
+  <si>
+    <t>Misty</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -636,8 +657,8 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCF2A28-07BE-4F11-BD12-796AD1B57C97}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D9B632-F9EE-4C9B-8895-7EEACEE474DF}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1284,7 @@
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1279,8 +1300,11 @@
       <c r="E1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1297,8 +1321,11 @@
         <f>IF(D2-1 = 0, "", D2-1)</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1312,11 +1339,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E56" si="0">IF(D3-1 = 0, "", D3-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E3:E86" si="0">IF(D3-1 = 0, "", D3-1)</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="I3">
+        <f>H3 * (3/20)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1333,8 +1368,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>H4 * (1/4)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1351,8 +1394,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1370,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1388,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1406,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1424,7 +1471,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1442,7 +1489,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1460,7 +1507,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1478,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1496,7 +1543,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1514,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1532,7 +1579,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2268,6 +2315,658 @@
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
